--- a/pred_ohlcv/54_21/2020-01-23 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MTL ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>11044.77368128999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5759.888781289995</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5743.658181289995</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7040.877381289994</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>13920.22808129</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24230.00808128999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>43960.51135491</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>48261.81055491</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>48251.67755491</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>45729.84465491</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>60480.43395491</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>60840.57825491</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>63183.81998658</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>63166.73764971999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>56433.13644972</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>33413.65111667</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>43309.49422126</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>48429.05396149</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>64918.43456148999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>60352.13446148999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>56669.73206148999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>57969.73206148999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>57418.37276148999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>54163.59916148999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>55326.49226148999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>51404.95756148999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>48404.95756148999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>49608.41096148999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>48313.64446149</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>57631.69206149</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>67715.44386149</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>67569.90026148999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>73347.78396148999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>61733.27886148998</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>63206.70378765999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70206.50188765998</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>67822.26348765998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>65911.49618765997</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>62890.16328765997</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>59868.83048765997</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>59922.95318765997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>59922.95318765997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>53486.87728765997</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>55455.47558765997</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>53387.77558765997</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>52195.37278765997</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>52227.83458765998</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-493258.8958836198</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MTL ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>12833.77368128999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>11044.77368128999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5735.226681289995</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5759.888781289995</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5731.959481289995</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5743.658181289995</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7040.877381289994</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>13920.22808129</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>22714.45988128999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24230.00808128999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>23877.00808128999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>51161.69478129</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>49520.47518129</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>50053.47655491</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>43960.51135491</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>48261.81055491</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>48251.67755491</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>45729.84465491</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>60480.43395491</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>60840.57825491</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>63183.81998658</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>63166.73764971999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>56433.13644972</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>39342.24804972</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>34897.88061667</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>33413.65111667</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>40301.98551667</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>48429.05396149</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>64918.43456148999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>60352.13446148999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>56669.73206148999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>57969.73206148999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>57409.84126148999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>57418.37276148999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>56404.35036148999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>54163.59916148999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>55326.49226148999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>51404.95756148999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>48404.95756148999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>49608.41096148999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>48313.64446149</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>48187.59336149</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>52526.89496149</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>57631.69206149</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>67715.44386149</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>67569.90026148999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>66726.04446148999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>74016.04446148999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>73347.78396148999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>73349.78396148999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>61733.27886148998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>63206.70378765999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>63178.93458765998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70206.50188765998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>53668.79768765997</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>52195.37278765997</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>60185.29578765998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-46792.31479800005</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-46620.31469800005</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-490800.1749836198</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-499045.9799836198</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-493076.7482444298</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-500141.0680444298</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
